--- a/data_output/Excess Mortality/Countries/TOTAL_EUROPE_(90+)_['Female', 'Male', 'Total']_excess_mortality_2020.xlsx
+++ b/data_output/Excess Mortality/Countries/TOTAL_EUROPE_(90+)_['Female', 'Male', 'Total']_excess_mortality_2020.xlsx
@@ -662,7 +662,7 @@
         <v>2020</v>
       </c>
       <c r="D3" t="n">
-        <v>17654</v>
+        <v>17656</v>
       </c>
       <c r="E3" t="n">
         <v>12245</v>
@@ -698,7 +698,7 @@
         <v>13493.40000000001</v>
       </c>
       <c r="P3" t="n">
-        <v>4632.8</v>
+        <v>4634.8</v>
       </c>
       <c r="Q3" t="n">
         <v>472.2</v>
@@ -716,7 +716,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>4632.8 (±472.2)</t>
+          <t>4634.8 (±472.2)</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -728,14 +728,14 @@
         <v>81428</v>
       </c>
       <c r="X3" t="n">
-        <v>5689.4</v>
+        <v>5691.9</v>
       </c>
       <c r="Y3" t="n">
         <v>579.9</v>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>5689.4(±579.9)</t>
+          <t>5691.9(±579.9)</t>
         </is>
       </c>
     </row>
@@ -754,7 +754,7 @@
         <v>2020</v>
       </c>
       <c r="D4" t="n">
-        <v>6373</v>
+        <v>6374</v>
       </c>
       <c r="E4" t="n">
         <v>5220</v>
@@ -790,16 +790,16 @@
         <v>5595.199999999999</v>
       </c>
       <c r="P4" t="n">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="Q4" t="n">
         <v>150.2</v>
       </c>
       <c r="R4" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="S4" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -808,26 +808,26 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>928.0 (±150.2)</t>
+          <t>929.0 (±150.2)</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>17.0% (±3.1%)</t>
+          <t>17.1% (±3.2%)</t>
         </is>
       </c>
       <c r="W4" t="n">
         <v>24448</v>
       </c>
       <c r="X4" t="n">
-        <v>3795.8</v>
+        <v>3799.9</v>
       </c>
       <c r="Y4" t="n">
         <v>614.4</v>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>3795.8(±614.4)</t>
+          <t>3799.9(±614.4)</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
         <v>2020</v>
       </c>
       <c r="D5" t="n">
-        <v>4427</v>
+        <v>4429</v>
       </c>
       <c r="E5" t="n">
         <v>3281</v>
@@ -882,13 +882,13 @@
         <v>3595.2</v>
       </c>
       <c r="P5" t="n">
-        <v>939.4</v>
+        <v>941.4</v>
       </c>
       <c r="Q5" t="n">
         <v>107.6</v>
       </c>
       <c r="R5" t="n">
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="S5" t="n">
         <v>3.8</v>
@@ -900,26 +900,26 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>939.4 (±107.6)</t>
+          <t>941.4 (±107.6)</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>26.9% (±3.8%)</t>
+          <t>27.0% (±3.8%)</t>
         </is>
       </c>
       <c r="W5" t="n">
         <v>16954</v>
       </c>
       <c r="X5" t="n">
-        <v>5540.9</v>
+        <v>5552.7</v>
       </c>
       <c r="Y5" t="n">
         <v>634.6</v>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>5540.9(±634.6)</t>
+          <t>5552.7(±634.6)</t>
         </is>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
         <v>2020</v>
       </c>
       <c r="D8" t="n">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="E8" t="n">
         <v>1228</v>
@@ -1158,16 +1158,16 @@
         <v>1495.6</v>
       </c>
       <c r="P8" t="n">
-        <v>356.8</v>
+        <v>357.8</v>
       </c>
       <c r="Q8" t="n">
         <v>104.4</v>
       </c>
       <c r="R8" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="S8" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1176,26 +1176,26 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>356.8 (±104.4)</t>
+          <t>357.8 (±104.4)</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>25.6% (±8.7%)</t>
+          <t>25.7% (±8.8%)</t>
         </is>
       </c>
       <c r="W8" t="n">
         <v>8999</v>
       </c>
       <c r="X8" t="n">
-        <v>3964.9</v>
+        <v>3976</v>
       </c>
       <c r="Y8" t="n">
         <v>1160.1</v>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>3964.9(±1160.1)</t>
+          <t>3976.0(±1160.1)</t>
         </is>
       </c>
     </row>
@@ -1306,7 +1306,7 @@
         <v>2020</v>
       </c>
       <c r="D10" t="n">
-        <v>113471</v>
+        <v>113486</v>
       </c>
       <c r="E10" t="n">
         <v>85510</v>
@@ -1342,7 +1342,7 @@
         <v>95542.8</v>
       </c>
       <c r="P10" t="n">
-        <v>21077.8</v>
+        <v>21092.8</v>
       </c>
       <c r="Q10" t="n">
         <v>3149.6</v>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>21077.8 (±3149.6)</t>
+          <t>21092.8 (±3149.6)</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1372,14 +1372,14 @@
         <v>637962</v>
       </c>
       <c r="X10" t="n">
-        <v>3303.9</v>
+        <v>3306.3</v>
       </c>
       <c r="Y10" t="n">
         <v>493.7</v>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>3303.9(±493.7)</t>
+          <t>3306.3(±493.7)</t>
         </is>
       </c>
     </row>
@@ -1766,7 +1766,7 @@
         <v>2020</v>
       </c>
       <c r="D15" t="n">
-        <v>3881</v>
+        <v>3923</v>
       </c>
       <c r="E15" t="n">
         <v>2905</v>
@@ -1802,16 +1802,16 @@
         <v>3261.3</v>
       </c>
       <c r="P15" t="n">
-        <v>744.8</v>
+        <v>786.8</v>
       </c>
       <c r="Q15" t="n">
         <v>125.1</v>
       </c>
       <c r="R15" t="n">
-        <v>23.7</v>
+        <v>25.1</v>
       </c>
       <c r="S15" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -1820,26 +1820,26 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>744.8 (±125.1)</t>
+          <t>786.8 (±125.1)</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>23.7% (±4.7%)</t>
+          <t>25.1% (±4.8%)</t>
         </is>
       </c>
       <c r="W15" t="n">
         <v>16690</v>
       </c>
       <c r="X15" t="n">
-        <v>4462.6</v>
+        <v>4714.2</v>
       </c>
       <c r="Y15" t="n">
-        <v>749.5</v>
+        <v>749.6</v>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>4462.6(±749.5)</t>
+          <t>4714.2(±749.6)</t>
         </is>
       </c>
     </row>
@@ -1858,7 +1858,7 @@
         <v>2020</v>
       </c>
       <c r="D16" t="n">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E16" t="n">
         <v>384</v>
@@ -1894,16 +1894,16 @@
         <v>469.5</v>
       </c>
       <c r="P16" t="n">
-        <v>164.4</v>
+        <v>163.4</v>
       </c>
       <c r="Q16" t="n">
         <v>32.9</v>
       </c>
       <c r="R16" t="n">
-        <v>37.7</v>
+        <v>37.4</v>
       </c>
       <c r="S16" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -1912,26 +1912,26 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>164.4 (±32.9)</t>
+          <t>163.4 (±32.9)</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>37.7% (±9.7%)</t>
+          <t>37.4% (±9.6%)</t>
         </is>
       </c>
       <c r="W16" t="n">
         <v>2850</v>
       </c>
       <c r="X16" t="n">
-        <v>5768.4</v>
+        <v>5733.3</v>
       </c>
       <c r="Y16" t="n">
         <v>1154.4</v>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>5768.4(±1154.4)</t>
+          <t>5733.3(±1154.4)</t>
         </is>
       </c>
     </row>
@@ -2042,7 +2042,7 @@
         <v>2020</v>
       </c>
       <c r="D18" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E18" t="n">
         <v>217</v>
@@ -2078,16 +2078,16 @@
         <v>266.3</v>
       </c>
       <c r="P18" t="n">
-        <v>53.6</v>
+        <v>55.6</v>
       </c>
       <c r="Q18" t="n">
         <v>16.9</v>
       </c>
       <c r="R18" t="n">
-        <v>21.5</v>
+        <v>22.3</v>
       </c>
       <c r="S18" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2096,26 +2096,26 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>53.6 (±16.9)</t>
+          <t>55.6 (±16.9)</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>21.5% (±7.7%)</t>
+          <t>22.3% (±7.8%)</t>
         </is>
       </c>
       <c r="W18" t="n">
         <v>1319</v>
       </c>
       <c r="X18" t="n">
-        <v>4063.7</v>
+        <v>4215.3</v>
       </c>
       <c r="Y18" t="n">
         <v>1281.3</v>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>4063.7(±1281.3)</t>
+          <t>4215.3(±1281.3)</t>
         </is>
       </c>
     </row>
@@ -2410,7 +2410,7 @@
         <v>2020</v>
       </c>
       <c r="D22" t="n">
-        <v>15601</v>
+        <v>15620</v>
       </c>
       <c r="E22" t="n">
         <v>10737</v>
@@ -2446,13 +2446,13 @@
         <v>12791.6</v>
       </c>
       <c r="P22" t="n">
-        <v>3429.4</v>
+        <v>3448.4</v>
       </c>
       <c r="Q22" t="n">
         <v>620</v>
       </c>
       <c r="R22" t="n">
-        <v>28.2</v>
+        <v>28.3</v>
       </c>
       <c r="S22" t="n">
         <v>6.2</v>
@@ -2464,26 +2464,26 @@
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>3429.4 (±620.0)</t>
+          <t>3448.4 (±620.0)</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>28.2% (±6.2%)</t>
+          <t>28.3% (±6.2%)</t>
         </is>
       </c>
       <c r="W22" t="n">
         <v>69318</v>
       </c>
       <c r="X22" t="n">
-        <v>4947.3</v>
+        <v>4974.8</v>
       </c>
       <c r="Y22" t="n">
-        <v>894.5</v>
+        <v>894.4</v>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>4947.3(±894.5)</t>
+          <t>4974.8(±894.4)</t>
         </is>
       </c>
     </row>
@@ -2594,7 +2594,7 @@
         <v>2020</v>
       </c>
       <c r="D24" t="n">
-        <v>3790</v>
+        <v>3793</v>
       </c>
       <c r="E24" t="n">
         <v>3002</v>
@@ -2630,13 +2630,13 @@
         <v>3278.2</v>
       </c>
       <c r="P24" t="n">
-        <v>589.2</v>
+        <v>592.2</v>
       </c>
       <c r="Q24" t="n">
         <v>77.40000000000001</v>
       </c>
       <c r="R24" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="S24" t="n">
         <v>2.8</v>
@@ -2648,26 +2648,26 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>589.2 (±77.4)</t>
+          <t>592.2 (±77.4)</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>18.4% (±2.8%)</t>
+          <t>18.5% (±2.8%)</t>
         </is>
       </c>
       <c r="W24" t="n">
         <v>18651</v>
       </c>
       <c r="X24" t="n">
-        <v>3159.1</v>
+        <v>3175.2</v>
       </c>
       <c r="Y24" t="n">
         <v>415</v>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>3159.1(±415.0)</t>
+          <t>3175.2(±415.0)</t>
         </is>
       </c>
     </row>
@@ -3054,7 +3054,7 @@
         <v>2020</v>
       </c>
       <c r="D29" t="n">
-        <v>8206</v>
+        <v>8207</v>
       </c>
       <c r="E29" t="n">
         <v>5049</v>
@@ -3090,7 +3090,7 @@
         <v>5918.1</v>
       </c>
       <c r="P29" t="n">
-        <v>2572.2</v>
+        <v>2573.2</v>
       </c>
       <c r="Q29" t="n">
         <v>284.3</v>
@@ -3108,7 +3108,7 @@
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>2572.2 (±284.3)</t>
+          <t>2573.2 (±284.3)</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -3120,14 +3120,14 @@
         <v>30894</v>
       </c>
       <c r="X29" t="n">
-        <v>8325.9</v>
+        <v>8329.1</v>
       </c>
       <c r="Y29" t="n">
-        <v>920.2</v>
+        <v>920.3</v>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>8325.9(±920.2)</t>
+          <t>8329.1(±920.3)</t>
         </is>
       </c>
     </row>
@@ -3238,7 +3238,7 @@
         <v>2020</v>
       </c>
       <c r="D31" t="n">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="E31" t="n">
         <v>1042</v>
@@ -3274,16 +3274,16 @@
         <v>1270</v>
       </c>
       <c r="P31" t="n">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="Q31" t="n">
         <v>91</v>
       </c>
       <c r="R31" t="n">
-        <v>44.4</v>
+        <v>44.2</v>
       </c>
       <c r="S31" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -3292,26 +3292,26 @@
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>523.0 (±91.0)</t>
+          <t>521.0 (±91.0)</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>44.4% (±10.4%)</t>
+          <t>44.2% (±10.3%)</t>
         </is>
       </c>
       <c r="W31" t="n">
         <v>5440</v>
       </c>
       <c r="X31" t="n">
-        <v>9614</v>
+        <v>9577.200000000001</v>
       </c>
       <c r="Y31" t="n">
         <v>1672.8</v>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>9614.0(±1672.8)</t>
+          <t>9577.2(±1672.8)</t>
         </is>
       </c>
     </row>
@@ -3698,7 +3698,7 @@
         <v>2020</v>
       </c>
       <c r="D36" t="n">
-        <v>53567</v>
+        <v>53570</v>
       </c>
       <c r="E36" t="n">
         <v>37946</v>
@@ -3734,7 +3734,7 @@
         <v>43624.10000000001</v>
       </c>
       <c r="P36" t="n">
-        <v>11770.4</v>
+        <v>11773.4</v>
       </c>
       <c r="Q36" t="n">
         <v>1827.5</v>
@@ -3752,7 +3752,7 @@
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>11770.4 (±1827.5)</t>
+          <t>11773.4 (±1827.5)</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -3764,14 +3764,14 @@
         <v>226564</v>
       </c>
       <c r="X36" t="n">
-        <v>5195.2</v>
+        <v>5196.5</v>
       </c>
       <c r="Y36" t="n">
         <v>806.6</v>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>5195.2(±806.6)</t>
+          <t>5196.5(±806.6)</t>
         </is>
       </c>
     </row>
@@ -4158,7 +4158,7 @@
         <v>2020</v>
       </c>
       <c r="D41" t="n">
-        <v>1154</v>
+        <v>1164</v>
       </c>
       <c r="E41" t="n">
         <v>780</v>
@@ -4194,16 +4194,16 @@
         <v>955.4999999999998</v>
       </c>
       <c r="P41" t="n">
-        <v>265.8</v>
+        <v>275.8</v>
       </c>
       <c r="Q41" t="n">
         <v>67.3</v>
       </c>
       <c r="R41" t="n">
-        <v>29.9</v>
+        <v>31.1</v>
       </c>
       <c r="S41" t="n">
-        <v>9.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -4212,26 +4212,26 @@
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>265.8 (±67.3)</t>
+          <t>275.8 (±67.3)</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>29.9% (±9.1%)</t>
+          <t>31.1% (±9.3%)</t>
         </is>
       </c>
       <c r="W41" t="n">
         <v>4290</v>
       </c>
       <c r="X41" t="n">
-        <v>6195.8</v>
+        <v>6428.9</v>
       </c>
       <c r="Y41" t="n">
         <v>1568.8</v>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>6195.8(±1568.8)</t>
+          <t>6428.9(±1568.8)</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
         <v>2020</v>
       </c>
       <c r="D42" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E42" t="n">
         <v>146</v>
@@ -4286,16 +4286,16 @@
         <v>205.9</v>
       </c>
       <c r="P42" t="n">
-        <v>80.8</v>
+        <v>83.8</v>
       </c>
       <c r="Q42" t="n">
         <v>20.7</v>
       </c>
       <c r="R42" t="n">
-        <v>43.6</v>
+        <v>45.2</v>
       </c>
       <c r="S42" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -4304,26 +4304,26 @@
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>80.8 (±20.7)</t>
+          <t>83.8 (±20.7)</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>43.6% (±14.4%)</t>
+          <t>45.2% (±14.6%)</t>
         </is>
       </c>
       <c r="W42" t="n">
         <v>1024</v>
       </c>
       <c r="X42" t="n">
-        <v>7890.6</v>
+        <v>8183.6</v>
       </c>
       <c r="Y42" t="n">
         <v>2021.5</v>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>7890.6(±2021.5)</t>
+          <t>8183.6(±2021.5)</t>
         </is>
       </c>
     </row>
@@ -4434,7 +4434,7 @@
         <v>2020</v>
       </c>
       <c r="D44" t="n">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E44" t="n">
         <v>107</v>
@@ -4470,16 +4470,16 @@
         <v>146.6</v>
       </c>
       <c r="P44" t="n">
-        <v>20.8</v>
+        <v>24.8</v>
       </c>
       <c r="Q44" t="n">
         <v>14.4</v>
       </c>
       <c r="R44" t="n">
-        <v>15.7</v>
+        <v>18.8</v>
       </c>
       <c r="S44" t="n">
-        <v>11.3</v>
+        <v>11.7</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -4488,26 +4488,26 @@
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>20.8 (±14.4)</t>
+          <t>24.8 (±14.4)</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>15.7% (±11.3%)</t>
+          <t>18.8% (±11.7%)</t>
         </is>
       </c>
       <c r="W44" t="n">
         <v>923</v>
       </c>
       <c r="X44" t="n">
-        <v>2253.5</v>
+        <v>2686.9</v>
       </c>
       <c r="Y44" t="n">
-        <v>1560.2</v>
+        <v>1560.1</v>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2253.5(±1560.2)</t>
+          <t>2686.9(±1560.1)</t>
         </is>
       </c>
     </row>
@@ -4802,7 +4802,7 @@
         <v>2020</v>
       </c>
       <c r="D48" t="n">
-        <v>7304</v>
+        <v>7314</v>
       </c>
       <c r="E48" t="n">
         <v>4767</v>
@@ -4838,16 +4838,16 @@
         <v>5963.999999999999</v>
       </c>
       <c r="P48" t="n">
-        <v>1704.4</v>
+        <v>1714.4</v>
       </c>
       <c r="Q48" t="n">
         <v>364.4</v>
       </c>
       <c r="R48" t="n">
-        <v>30.4</v>
+        <v>30.6</v>
       </c>
       <c r="S48" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -4856,26 +4856,26 @@
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>1704.4 (±364.4)</t>
+          <t>1714.4 (±364.4)</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>30.4% (±7.9%)</t>
+          <t>30.6% (±8.0%)</t>
         </is>
       </c>
       <c r="W48" t="n">
         <v>25902</v>
       </c>
       <c r="X48" t="n">
-        <v>6580.2</v>
+        <v>6618.8</v>
       </c>
       <c r="Y48" t="n">
         <v>1406.8</v>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>6580.2(±1406.8)</t>
+          <t>6618.8(±1406.8)</t>
         </is>
       </c>
     </row>
@@ -4986,7 +4986,7 @@
         <v>2020</v>
       </c>
       <c r="D50" t="n">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="E50" t="n">
         <v>1101</v>
@@ -5022,7 +5022,7 @@
         <v>1164.1</v>
       </c>
       <c r="P50" t="n">
-        <v>233.8</v>
+        <v>234.8</v>
       </c>
       <c r="Q50" t="n">
         <v>15.9</v>
@@ -5031,7 +5031,7 @@
         <v>20.4</v>
       </c>
       <c r="S50" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -5040,26 +5040,26 @@
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>233.8 (±15.9)</t>
+          <t>234.8 (±15.9)</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>20.4% (±1.7%)</t>
+          <t>20.4% (±1.6%)</t>
         </is>
       </c>
       <c r="W50" t="n">
         <v>6592</v>
       </c>
       <c r="X50" t="n">
-        <v>3546.7</v>
+        <v>3561.9</v>
       </c>
       <c r="Y50" t="n">
         <v>241.2</v>
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>3546.7(±241.2)</t>
+          <t>3561.9(±241.2)</t>
         </is>
       </c>
     </row>
@@ -5170,7 +5170,7 @@
         <v>2020</v>
       </c>
       <c r="D52" t="n">
-        <v>36228</v>
+        <v>36229</v>
       </c>
       <c r="E52" t="n">
         <v>23398</v>
@@ -5206,7 +5206,7 @@
         <v>27020.69999999999</v>
       </c>
       <c r="P52" t="n">
-        <v>10390.4</v>
+        <v>10391.4</v>
       </c>
       <c r="Q52" t="n">
         <v>1183.1</v>
@@ -5224,7 +5224,7 @@
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>10390.4 (±1183.1)</t>
+          <t>10391.4 (±1183.1)</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
@@ -5236,14 +5236,14 @@
         <v>158002</v>
       </c>
       <c r="X52" t="n">
-        <v>6576.1</v>
+        <v>6576.8</v>
       </c>
       <c r="Y52" t="n">
-        <v>748.8</v>
+        <v>748.7</v>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>6576.1(±748.8)</t>
+          <t>6576.8(±748.7)</t>
         </is>
       </c>
     </row>
@@ -5446,7 +5446,7 @@
         <v>2020</v>
       </c>
       <c r="D55" t="n">
-        <v>25860</v>
+        <v>25863</v>
       </c>
       <c r="E55" t="n">
         <v>17294</v>
@@ -5482,7 +5482,7 @@
         <v>19385.5</v>
       </c>
       <c r="P55" t="n">
-        <v>7205</v>
+        <v>7208</v>
       </c>
       <c r="Q55" t="n">
         <v>730.5</v>
@@ -5500,7 +5500,7 @@
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>7205.0 (±730.5)</t>
+          <t>7208.0 (±730.5)</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
@@ -5512,14 +5512,14 @@
         <v>112322</v>
       </c>
       <c r="X55" t="n">
-        <v>6414.6</v>
+        <v>6417.3</v>
       </c>
       <c r="Y55" t="n">
-        <v>650.4</v>
+        <v>650.3</v>
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>6414.6(±650.4)</t>
+          <t>6417.3(±650.3)</t>
         </is>
       </c>
     </row>
@@ -5538,7 +5538,7 @@
         <v>2020</v>
       </c>
       <c r="D56" t="n">
-        <v>9745</v>
+        <v>9746</v>
       </c>
       <c r="E56" t="n">
         <v>7842</v>
@@ -5574,7 +5574,7 @@
         <v>8346.700000000001</v>
       </c>
       <c r="P56" t="n">
-        <v>1608.4</v>
+        <v>1609.4</v>
       </c>
       <c r="Q56" t="n">
         <v>210.1</v>
@@ -5592,7 +5592,7 @@
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>1608.4 (±210.1)</t>
+          <t>1609.4 (±210.1)</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
@@ -5604,14 +5604,14 @@
         <v>35580</v>
       </c>
       <c r="X56" t="n">
-        <v>4520.5</v>
+        <v>4523.3</v>
       </c>
       <c r="Y56" t="n">
         <v>590.5</v>
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>4520.5(±590.5)</t>
+          <t>4523.3(±590.5)</t>
         </is>
       </c>
     </row>
@@ -5906,7 +5906,7 @@
         <v>2020</v>
       </c>
       <c r="D60" t="n">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="E60" t="n">
         <v>1502</v>
@@ -5942,16 +5942,16 @@
         <v>1881.8</v>
       </c>
       <c r="P60" t="n">
-        <v>477.8</v>
+        <v>478.8</v>
       </c>
       <c r="Q60" t="n">
         <v>145.6</v>
       </c>
       <c r="R60" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="S60" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
@@ -5960,26 +5960,26 @@
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>477.8 (±145.6)</t>
+          <t>478.8 (±145.6)</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>27.5% (±9.8%)</t>
+          <t>27.6% (±9.9%)</t>
         </is>
       </c>
       <c r="W60" t="n">
         <v>10975</v>
       </c>
       <c r="X60" t="n">
-        <v>4353.5</v>
+        <v>4362.6</v>
       </c>
       <c r="Y60" t="n">
         <v>1326.7</v>
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>4353.5(±1326.7)</t>
+          <t>4362.6(±1326.7)</t>
         </is>
       </c>
     </row>
@@ -6090,7 +6090,7 @@
         <v>2020</v>
       </c>
       <c r="D62" t="n">
-        <v>167038</v>
+        <v>167056</v>
       </c>
       <c r="E62" t="n">
         <v>123456</v>
@@ -6126,7 +6126,7 @@
         <v>139163.8</v>
       </c>
       <c r="P62" t="n">
-        <v>32848.2</v>
+        <v>32866.2</v>
       </c>
       <c r="Q62" t="n">
         <v>4974</v>
@@ -6144,7 +6144,7 @@
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>32848.2 (±4974.0)</t>
+          <t>32866.2 (±4974.0)</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
@@ -6156,14 +6156,14 @@
         <v>864526</v>
       </c>
       <c r="X62" t="n">
-        <v>3799.6</v>
+        <v>3801.6</v>
       </c>
       <c r="Y62" t="n">
-        <v>575.3</v>
+        <v>575.4</v>
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>3799.6(±575.3)</t>
+          <t>3801.6(±575.4)</t>
         </is>
       </c>
     </row>
@@ -6550,7 +6550,7 @@
         <v>2020</v>
       </c>
       <c r="D67" t="n">
-        <v>5035</v>
+        <v>5087</v>
       </c>
       <c r="E67" t="n">
         <v>3685</v>
@@ -6586,16 +6586,16 @@
         <v>4210.999999999999</v>
       </c>
       <c r="P67" t="n">
-        <v>1010.6</v>
+        <v>1062.6</v>
       </c>
       <c r="Q67" t="n">
         <v>186.6</v>
       </c>
       <c r="R67" t="n">
-        <v>25.1</v>
+        <v>26.4</v>
       </c>
       <c r="S67" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
@@ -6604,26 +6604,26 @@
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>1010.6 (±186.6)</t>
+          <t>1062.6 (±186.6)</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>25.1% (±5.5%)</t>
+          <t>26.4% (±5.6%)</t>
         </is>
       </c>
       <c r="W67" t="n">
         <v>20980</v>
       </c>
       <c r="X67" t="n">
-        <v>4817</v>
+        <v>5064.8</v>
       </c>
       <c r="Y67" t="n">
         <v>889.4</v>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>4817.0(±889.4)</t>
+          <t>5064.8(±889.4)</t>
         </is>
       </c>
     </row>
@@ -6642,7 +6642,7 @@
         <v>2020</v>
       </c>
       <c r="D68" t="n">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="E68" t="n">
         <v>530</v>
@@ -6678,16 +6678,16 @@
         <v>673.3</v>
       </c>
       <c r="P68" t="n">
-        <v>245.2</v>
+        <v>247.2</v>
       </c>
       <c r="Q68" t="n">
         <v>51.5</v>
       </c>
       <c r="R68" t="n">
-        <v>39.4</v>
+        <v>39.8</v>
       </c>
       <c r="S68" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
@@ -6696,26 +6696,26 @@
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>245.2 (±51.5)</t>
+          <t>247.2 (±51.5)</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>39.4% (±10.6%)</t>
+          <t>39.8% (±10.7%)</t>
         </is>
       </c>
       <c r="W68" t="n">
         <v>3874</v>
       </c>
       <c r="X68" t="n">
-        <v>6329.4</v>
+        <v>6381</v>
       </c>
       <c r="Y68" t="n">
         <v>1329.4</v>
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>6329.4(±1329.4)</t>
+          <t>6381.0(±1329.4)</t>
         </is>
       </c>
     </row>
@@ -6826,7 +6826,7 @@
         <v>2020</v>
       </c>
       <c r="D70" t="n">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="E70" t="n">
         <v>324</v>
@@ -6862,16 +6862,16 @@
         <v>407.8</v>
       </c>
       <c r="P70" t="n">
-        <v>74.40000000000001</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="Q70" t="n">
         <v>26.2</v>
       </c>
       <c r="R70" t="n">
-        <v>19.5</v>
+        <v>21.1</v>
       </c>
       <c r="S70" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="T70" t="inlineStr">
         <is>
@@ -6880,26 +6880,26 @@
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>74.4 (±26.2)</t>
+          <t>80.4 (±26.2)</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>19.5% (±7.7%)</t>
+          <t>21.1% (±7.8%)</t>
         </is>
       </c>
       <c r="W70" t="n">
         <v>2242</v>
       </c>
       <c r="X70" t="n">
-        <v>3318.5</v>
+        <v>3586.1</v>
       </c>
       <c r="Y70" t="n">
         <v>1168.6</v>
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>3318.5(±1168.6)</t>
+          <t>3586.1(±1168.6)</t>
         </is>
       </c>
     </row>
@@ -7194,7 +7194,7 @@
         <v>2020</v>
       </c>
       <c r="D74" t="n">
-        <v>22905</v>
+        <v>22934</v>
       </c>
       <c r="E74" t="n">
         <v>15504</v>
@@ -7230,16 +7230,16 @@
         <v>18748.1</v>
       </c>
       <c r="P74" t="n">
-        <v>5133.8</v>
+        <v>5162.8</v>
       </c>
       <c r="Q74" t="n">
         <v>976.9</v>
       </c>
       <c r="R74" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="S74" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="T74" t="inlineStr">
         <is>
@@ -7248,26 +7248,26 @@
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>5133.8 (±976.9)</t>
+          <t>5162.8 (±976.9)</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>28.9% (±6.7%)</t>
+          <t>29.1% (±6.8%)</t>
         </is>
       </c>
       <c r="W74" t="n">
         <v>95220</v>
       </c>
       <c r="X74" t="n">
-        <v>5391.5</v>
+        <v>5422</v>
       </c>
       <c r="Y74" t="n">
-        <v>1026</v>
+        <v>1025.9</v>
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>5391.5(±1026.0)</t>
+          <t>5422.0(±1025.9)</t>
         </is>
       </c>
     </row>
@@ -7378,7 +7378,7 @@
         <v>2020</v>
       </c>
       <c r="D76" t="n">
-        <v>5172</v>
+        <v>5176</v>
       </c>
       <c r="E76" t="n">
         <v>4103</v>
@@ -7414,13 +7414,13 @@
         <v>4437.100000000001</v>
       </c>
       <c r="P76" t="n">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="Q76" t="n">
         <v>88.09999999999999</v>
       </c>
       <c r="R76" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="S76" t="n">
         <v>2.3</v>
@@ -7432,26 +7432,26 @@
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>823.0 (±88.1)</t>
+          <t>827.0 (±88.1)</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>18.9% (±2.3%)</t>
+          <t>19.0% (±2.3%)</t>
         </is>
       </c>
       <c r="W76" t="n">
         <v>25243</v>
       </c>
       <c r="X76" t="n">
-        <v>3260.3</v>
+        <v>3276.2</v>
       </c>
       <c r="Y76" t="n">
         <v>349</v>
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>3260.3(±349.0)</t>
+          <t>3276.2(±349.0)</t>
         </is>
       </c>
     </row>
@@ -7562,7 +7562,7 @@
         <v>2020</v>
       </c>
       <c r="D78" t="n">
-        <v>108998</v>
+        <v>108999</v>
       </c>
       <c r="E78" t="n">
         <v>74083</v>
@@ -7598,7 +7598,7 @@
         <v>83115.89999999999</v>
       </c>
       <c r="P78" t="n">
-        <v>28703.2</v>
+        <v>28704.2</v>
       </c>
       <c r="Q78" t="n">
         <v>2821.1</v>
@@ -7616,7 +7616,7 @@
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>28703.2 (±2821.1)</t>
+          <t>28704.2 (±2821.1)</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
@@ -7628,14 +7628,14 @@
         <v>537190</v>
       </c>
       <c r="X78" t="n">
-        <v>5343.2</v>
+        <v>5343.4</v>
       </c>
       <c r="Y78" t="n">
         <v>525.2</v>
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>5343.2(±525.2)</t>
+          <t>5343.4(±525.2)</t>
         </is>
       </c>
     </row>

--- a/data_output/Excess Mortality/Countries/TOTAL_EUROPE_(90+)_['Female', 'Male', 'Total']_excess_mortality_2020.xlsx
+++ b/data_output/Excess Mortality/Countries/TOTAL_EUROPE_(90+)_['Female', 'Male', 'Total']_excess_mortality_2020.xlsx
@@ -1122,7 +1122,7 @@
         <v>2020</v>
       </c>
       <c r="D8" t="n">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="E8" t="n">
         <v>1228</v>
@@ -1158,13 +1158,13 @@
         <v>1495.6</v>
       </c>
       <c r="P8" t="n">
-        <v>357.8</v>
+        <v>358.8</v>
       </c>
       <c r="Q8" t="n">
         <v>104.4</v>
       </c>
       <c r="R8" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="S8" t="n">
         <v>8.800000000000001</v>
@@ -1176,26 +1176,26 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>357.8 (±104.4)</t>
+          <t>358.8 (±104.4)</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>25.7% (±8.8%)</t>
+          <t>25.8% (±8.8%)</t>
         </is>
       </c>
       <c r="W8" t="n">
         <v>8999</v>
       </c>
       <c r="X8" t="n">
-        <v>3976</v>
+        <v>3987.1</v>
       </c>
       <c r="Y8" t="n">
         <v>1160.1</v>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>3976.0(±1160.1)</t>
+          <t>3987.1(±1160.1)</t>
         </is>
       </c>
     </row>
@@ -1582,7 +1582,7 @@
         <v>2020</v>
       </c>
       <c r="D13" t="n">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E13" t="n">
         <v>224</v>
@@ -1618,16 +1618,16 @@
         <v>265.3</v>
       </c>
       <c r="P13" t="n">
-        <v>10.4</v>
+        <v>12.4</v>
       </c>
       <c r="Q13" t="n">
         <v>22.7</v>
       </c>
       <c r="R13" t="n">
-        <v>4.3</v>
+        <v>5.1</v>
       </c>
       <c r="S13" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1636,26 +1636,26 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>10.4 (±22.7)</t>
+          <t>12.4 (±22.7)</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>4.3% (±8.9%)</t>
+          <t>5.1% (±9.0%)</t>
         </is>
       </c>
       <c r="W13" t="n">
         <v>1455</v>
       </c>
       <c r="X13" t="n">
-        <v>714.8</v>
+        <v>852.2</v>
       </c>
       <c r="Y13" t="n">
-        <v>1560.1</v>
+        <v>1560.2</v>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>714.8(±1560.1)</t>
+          <t>852.2(±1560.2)</t>
         </is>
       </c>
     </row>
@@ -3974,7 +3974,7 @@
         <v>2020</v>
       </c>
       <c r="D39" t="n">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E39" t="n">
         <v>131</v>
@@ -4010,16 +4010,16 @@
         <v>150.3</v>
       </c>
       <c r="P39" t="n">
-        <v>5.6</v>
+        <v>8.6</v>
       </c>
       <c r="Q39" t="n">
         <v>10.9</v>
       </c>
       <c r="R39" t="n">
-        <v>4</v>
+        <v>6.2</v>
       </c>
       <c r="S39" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -4028,26 +4028,26 @@
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>5.6 (±10.9)</t>
+          <t>8.6 (±10.9)</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>4.0% (±7.5%)</t>
+          <t>6.2% (±7.7%)</t>
         </is>
       </c>
       <c r="W39" t="n">
         <v>724</v>
       </c>
       <c r="X39" t="n">
-        <v>773.5</v>
+        <v>1187.8</v>
       </c>
       <c r="Y39" t="n">
-        <v>1505.5</v>
+        <v>1505.6</v>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>773.5(±1505.5)</t>
+          <t>1187.8(±1505.6)</t>
         </is>
       </c>
     </row>
@@ -5906,7 +5906,7 @@
         <v>2020</v>
       </c>
       <c r="D60" t="n">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="E60" t="n">
         <v>1502</v>
@@ -5942,7 +5942,7 @@
         <v>1881.8</v>
       </c>
       <c r="P60" t="n">
-        <v>478.8</v>
+        <v>479.8</v>
       </c>
       <c r="Q60" t="n">
         <v>145.6</v>
@@ -5951,7 +5951,7 @@
         <v>27.6</v>
       </c>
       <c r="S60" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
@@ -5960,26 +5960,26 @@
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>478.8 (±145.6)</t>
+          <t>479.8 (±145.6)</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>27.6% (±9.9%)</t>
+          <t>27.6% (±9.8%)</t>
         </is>
       </c>
       <c r="W60" t="n">
         <v>10975</v>
       </c>
       <c r="X60" t="n">
-        <v>4362.6</v>
+        <v>4371.8</v>
       </c>
       <c r="Y60" t="n">
-        <v>1326.7</v>
+        <v>1326.6</v>
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>4362.6(±1326.7)</t>
+          <t>4371.8(±1326.6)</t>
         </is>
       </c>
     </row>
@@ -6366,7 +6366,7 @@
         <v>2020</v>
       </c>
       <c r="D65" t="n">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="E65" t="n">
         <v>355</v>
@@ -6402,16 +6402,16 @@
         <v>413.2</v>
       </c>
       <c r="P65" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="Q65" t="n">
         <v>31.2</v>
       </c>
       <c r="R65" t="n">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="S65" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
@@ -6420,26 +6420,26 @@
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>16.0 (±31.2)</t>
+          <t>21.0 (±31.2)</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>4.2% (±7.9%)</t>
+          <t>5.5% (±8.0%)</t>
         </is>
       </c>
       <c r="W65" t="n">
         <v>2179</v>
       </c>
       <c r="X65" t="n">
-        <v>734.3</v>
+        <v>963.7</v>
       </c>
       <c r="Y65" t="n">
-        <v>1431.8</v>
+        <v>1431.9</v>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>734.3(±1431.8)</t>
+          <t>963.7(±1431.9)</t>
         </is>
       </c>
     </row>
